--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32911-d84669-Reviews-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-La-Quinta-Inn-Suites-Pomona.h5914.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1577 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r593435517-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>32911</t>
+  </si>
+  <si>
+    <t>84669</t>
+  </si>
+  <si>
+    <t>593435517</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Standard room, but clean. Adequate breakfast choices with a great coffee machine. No chair for the desk, which was inconvenient to do work in the room. Very friendly and helpful front desk staff on all shifts. Great price!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r590662990-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>590662990</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Beware of TRAIN Noise, no Sleep!</t>
+  </si>
+  <si>
+    <t>Wow, just returned from 2 nights and gotta say I will not be returning.  We had a room on the back side of the hotel and the first night at 1:30am, 2:30am and 5am a cargo TRAIN passed behind the buildings right to our rear (about a block distance) and blew their horn repetitively each time!!!! It was so loud it woke everyone up.  It was so infuriating. The next evening when we returned I asked the guy at the check in counter if this is a nightly thing, because it is bull and all he said was "Oh I dont normally work nights, so don't know".  Great that is no help.  It came back that evening around 11:00pm or so and then again at midnight but stopped after that.  We were in room 411 so whatever you do, dont pick a room on that side of the hall.  Not sure if the other side is that much better but since it is balcony rooms the sound comes right through the glass really easily.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Wow, just returned from 2 nights and gotta say I will not be returning.  We had a room on the back side of the hotel and the first night at 1:30am, 2:30am and 5am a cargo TRAIN passed behind the buildings right to our rear (about a block distance) and blew their horn repetitively each time!!!! It was so loud it woke everyone up.  It was so infuriating. The next evening when we returned I asked the guy at the check in counter if this is a nightly thing, because it is bull and all he said was "Oh I dont normally work nights, so don't know".  Great that is no help.  It came back that evening around 11:00pm or so and then again at midnight but stopped after that.  We were in room 411 so whatever you do, dont pick a room on that side of the hall.  Not sure if the other side is that much better but since it is balcony rooms the sound comes right through the glass really easily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r590448429-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>590448429</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Poor Pomona Stay</t>
+  </si>
+  <si>
+    <t>Train noise ALL NIGHT and poorly stocked breakfast items in AM.  How do you not have coffee?  NO SLEEP AND NO CAFFEINE! Broken elevator in AM when checking out from 4th floor!  Not an enjoyable stay.  Would not stay here again for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>Train noise ALL NIGHT and poorly stocked breakfast items in AM.  How do you not have coffee?  NO SLEEP AND NO CAFFEINE! Broken elevator in AM when checking out from 4th floor!  Not an enjoyable stay.  Would not stay here again for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r586921141-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>586921141</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>Great place for a family gathering. Rooms were by a balcony and adjoining, perfect for mingling.the perfect spot to stay while attending graduation.my kids loved the design of the hotel because it reminded them of Aztec pyramids.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Great place for a family gathering. Rooms were by a balcony and adjoining, perfect for mingling.the perfect spot to stay while attending graduation.my kids loved the design of the hotel because it reminded them of Aztec pyramids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r585278861-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>585278861</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great customer service. The staff was very friendly and assisted you right away. Great rooms. The rooms and bathrooms were very clean. Very nice pool area with jacuzzi. They serve great breakfast as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Great customer service. The staff was very friendly and assisted you right away. Great rooms. The rooms and bathrooms were very clean. Very nice pool area with jacuzzi. They serve great breakfast as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r583794202-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>583794202</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>lovely stay</t>
+  </si>
+  <si>
+    <t>We had a nice one night stay in this hotel.  Room was very clean and the bed was wonderful.  We both slept wonderful.  The area was quiet.  Breakfast was pleasant with a small but nice variety.  Would stay again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r579554576-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>579554576</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>One nighter</t>
+  </si>
+  <si>
+    <t>I decided to drive up for an early meeting in Pomona the night before to avoid the early morning traffic from San Diego. Best decision ever! although it was only an overnight stay, everything was perfect and the staff was extremely friendly as usual. Everyone I came in contact with smiled and acknowledged me. The room was quite large and very clean. I appreciate the hair dryer not being attached to the wall and the iron not attached to the board. I felt right at home and had a good nights sleep. Woke up for a tasty breakfast with lots of options and coffee. i think I was the most relaxed person at the meeting since everyone else drove in that day except for the locals. Thanks again La Quinta, you have never failed to deliver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2018</t>
+  </si>
+  <si>
+    <t>I decided to drive up for an early meeting in Pomona the night before to avoid the early morning traffic from San Diego. Best decision ever! although it was only an overnight stay, everything was perfect and the staff was extremely friendly as usual. Everyone I came in contact with smiled and acknowledged me. The room was quite large and very clean. I appreciate the hair dryer not being attached to the wall and the iron not attached to the board. I felt right at home and had a good nights sleep. Woke up for a tasty breakfast with lots of options and coffee. i think I was the most relaxed person at the meeting since everyone else drove in that day except for the locals. Thanks again La Quinta, you have never failed to deliver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r577293213-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>577293213</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>La Quinta in Pomona</t>
+  </si>
+  <si>
+    <t>Cannot express how pleased we were with our stay at this hotel. The hotel is so nice! And they welcome Pets! We travel with our small dog and everything was situated to make our stay relaxing. Food was good, room was updated and nice. Great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Cannot express how pleased we were with our stay at this hotel. The hotel is so nice! And they welcome Pets! We travel with our small dog and everything was situated to make our stay relaxing. Food was good, room was updated and nice. Great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r577128014-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>577128014</t>
+  </si>
+  <si>
+    <t>Nice value!</t>
+  </si>
+  <si>
+    <t>Newer hotel in good location!  Spacious, comfortable rooms with sink vanity separate from bathroom (a plus).  Friendly staff, good variety for breakfast.  Love that LaQuinta is pet friendly And this hotel had a nice grassy area for walking your pet.  Cozy fireside areas at pool to relax by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Newer hotel in good location!  Spacious, comfortable rooms with sink vanity separate from bathroom (a plus).  Friendly staff, good variety for breakfast.  Love that LaQuinta is pet friendly And this hotel had a nice grassy area for walking your pet.  Cozy fireside areas at pool to relax by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r574094496-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>574094496</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Horrible Stay</t>
+  </si>
+  <si>
+    <t>This was our 2nd time here at this location. 1st experience was spring brake several college kids on our floor. Very noisy and hall ways and person above us was stopping and was not able to sleep. Decided to give it a 2nd chance this time with the kids and stayed 2 nights and was a mistake. We where placed next to elevator and entrance of floor. After making comment at check in, that we did not want to be placed next to washer room or elevator because of being to noisy. Pool was not heated at ALL and water was freezing to have the kids in there. (what a waste) We where not able to sleep once again as it was to noisy. We expected a nice family get away from our home town of San Diego and we where disappointed once again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>This was our 2nd time here at this location. 1st experience was spring brake several college kids on our floor. Very noisy and hall ways and person above us was stopping and was not able to sleep. Decided to give it a 2nd chance this time with the kids and stayed 2 nights and was a mistake. We where placed next to elevator and entrance of floor. After making comment at check in, that we did not want to be placed next to washer room or elevator because of being to noisy. Pool was not heated at ALL and water was freezing to have the kids in there. (what a waste) We where not able to sleep once again as it was to noisy. We expected a nice family get away from our home town of San Diego and we where disappointed once again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r572734649-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>572734649</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Nicer than I expected</t>
+  </si>
+  <si>
+    <t>I stayed at the La Quinta Inn for one night while on business.  The hotel was clean, in a good location.  Check in was easy.  My one issues was that to get into the hotel with your bags, you have to either go down a half a flight of stairs or go up a half a flight of stairs....there is no direct access to the hotel rooms and no ramp.  So, when I checked in, drove around to park at the back of the hotel to park, with my bags I had to go down about 5 steps to get into the hotel.  It was odd.My room had a very heavy Lysol pine smell to it - it was clean.  My view overlooked the highway and the mountains but it was quiet.  I had a small balcony that I could access from my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the La Quinta Inn for one night while on business.  The hotel was clean, in a good location.  Check in was easy.  My one issues was that to get into the hotel with your bags, you have to either go down a half a flight of stairs or go up a half a flight of stairs....there is no direct access to the hotel rooms and no ramp.  So, when I checked in, drove around to park at the back of the hotel to park, with my bags I had to go down about 5 steps to get into the hotel.  It was odd.My room had a very heavy Lysol pine smell to it - it was clean.  My view overlooked the highway and the mountains but it was quiet.  I had a small balcony that I could access from my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r572579909-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>572579909</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Trip with pet</t>
+  </si>
+  <si>
+    <t>We stayed here because of your pet policy. Nice pet area with automatic light for night. Staff was very friendly and helpful. Lots of towels. We liked that sink was outside of the shower/toilet area. WE were traveling from San Francisco to SCottsdale, AZ and location was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here because of your pet policy. Nice pet area with automatic light for night. Staff was very friendly and helpful. Lots of towels. We liked that sink was outside of the shower/toilet area. WE were traveling from San Francisco to SCottsdale, AZ and location was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r569760740-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>569760740</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Second long stay</t>
+  </si>
+  <si>
+    <t>We stayed a few nights  in the same room last Thanksgiving (2017), and now we spent another 4 nights in the handicap/accessible room next to the swimming pool on the first floor. We really enjoyed our stay, the buffet breakfast is generous, varied, and has plenty of hot items besides waffles. The staff at La Quinta is very polite and cheerful. We have had many conversations in English and Spanish, and everyone enjoys the chat. We also appreciate seeing a security official visiting the buildings and walking the hallways. We think La Quinta has a good company culture and business policy. BTW, I was able to redeem reward points to make one night FREE!Let me make these suggestions (room 134):1. the bathroom, which has the accessibility wall bars by the toilet and tub, but it has no towel racks. There is no place to hang a towel except the shower curtain bar.2. the bathroom should have a hook on the door to hang a bathrobe, for example3. this time there was no chair for the large table in the roomThe wonderful staff...1. brought us an extra blanket within minutes of calling the front desk;2. brought us a perfect chair for the table right away, too.One last dream suggestion: my 99 year old mother has to "hurry" to get to breakfast before it "ends" at 9:00. Could 6:30-9:30 breakfast hours be considered?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>We stayed a few nights  in the same room last Thanksgiving (2017), and now we spent another 4 nights in the handicap/accessible room next to the swimming pool on the first floor. We really enjoyed our stay, the buffet breakfast is generous, varied, and has plenty of hot items besides waffles. The staff at La Quinta is very polite and cheerful. We have had many conversations in English and Spanish, and everyone enjoys the chat. We also appreciate seeing a security official visiting the buildings and walking the hallways. We think La Quinta has a good company culture and business policy. BTW, I was able to redeem reward points to make one night FREE!Let me make these suggestions (room 134):1. the bathroom, which has the accessibility wall bars by the toilet and tub, but it has no towel racks. There is no place to hang a towel except the shower curtain bar.2. the bathroom should have a hook on the door to hang a bathrobe, for example3. this time there was no chair for the large table in the roomThe wonderful staff...1. brought us an extra blanket within minutes of calling the front desk;2. brought us a perfect chair for the table right away, too.One last dream suggestion: my 99 year old mother has to "hurry" to get to breakfast before it "ends" at 9:00. Could 6:30-9:30 breakfast hours be considered?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r569008407-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>569008407</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Pomona La Quinta</t>
+  </si>
+  <si>
+    <t>Was pleased with our stay. Arrived too late to try out the pool but it looked nice. Did not like the split campus feel of the building mainly because I needed to do some laundry and had to go outside in order to get to the lobby to purchase laundry soap. I wish that their were dispensers in the laundry rooms for that reason. Front desk staff was helpful and friendly. Breakfast was decent, rooms were clean. I would stay here again, easy access to freeway. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Was pleased with our stay. Arrived too late to try out the pool but it looked nice. Did not like the split campus feel of the building mainly because I needed to do some laundry and had to go outside in order to get to the lobby to purchase laundry soap. I wish that their were dispensers in the laundry rooms for that reason. Front desk staff was helpful and friendly. Breakfast was decent, rooms were clean. I would stay here again, easy access to freeway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r568135534-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>568135534</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Very good location</t>
+  </si>
+  <si>
+    <t>This La Quinta is in a good location in my opinion. Right off the hwy, close to some really good places to eat (not walking distance) and is reasonably priced. The staff was very helpful in directing us where we could get to a variety of shopping and restaurants that were affordable. The room was well kept and THE WINDOW OPENS for a bit of fresh air if wanted. I will stay here again if in the area. Oh!! AND they have a HOT TUB too!! :)    MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>This La Quinta is in a good location in my opinion. Right off the hwy, close to some really good places to eat (not walking distance) and is reasonably priced. The staff was very helpful in directing us where we could get to a variety of shopping and restaurants that were affordable. The room was well kept and THE WINDOW OPENS for a bit of fresh air if wanted. I will stay here again if in the area. Oh!! AND they have a HOT TUB too!! :)    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r565204605-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>565204605</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Hotel in great location but still some glitches</t>
+  </si>
+  <si>
+    <t>In Pomona for a dog show at the Fairplex.  The location is very convenient to Ontario airport and the show site, plus is pet friendly.  However, it is an older property and there were some maintenance and accessibility issues.  The sink stopper was broken and the tub stopper was missing.  The slider door would not lock.  The exterior door down the hall had a sign saying it was broken, which was true since it was unlocked for my entire stay.  The accessibility issues made it difficult to get a trolley and crate in from the car very difficult, as there are numerous steps and curbs, without directing one to wheelchair accessible areas.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>In Pomona for a dog show at the Fairplex.  The location is very convenient to Ontario airport and the show site, plus is pet friendly.  However, it is an older property and there were some maintenance and accessibility issues.  The sink stopper was broken and the tub stopper was missing.  The slider door would not lock.  The exterior door down the hall had a sign saying it was broken, which was true since it was unlocked for my entire stay.  The accessibility issues made it difficult to get a trolley and crate in from the car very difficult, as there are numerous steps and curbs, without directing one to wheelchair accessible areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r564776671-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>564776671</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay w/ friendly staff</t>
+  </si>
+  <si>
+    <t>I recently booked a trip to Diamond Bar to visit a friend and to not be an inconvenience to my friend, I decided to grab a room last minute. I called and they had availability. I spoke with a gal named Paige and when I entered the lobby she remembered our phone conversation and asked for all my required items for check in (ID and credit card) as well as my AAA card. Paige is so great and nice, everything that you need to be in the hospitality industry. My room was great size and clean. Simple and easy for a single king with comfy pillows too! What I was really blown away with was their breakfast that they offer in their lobby. I work in the hospitality industry and my hotels lobby has nothing on what they have here. There was everything from omelettes, pancakes, yogurt, sausage, toast, bagels, cream cheese and jam, milk and cereal!!! This is so creat and the best. Thanks to the team for all the smiles! I know where I’ll be staying when I’m back in town!!  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>I recently booked a trip to Diamond Bar to visit a friend and to not be an inconvenience to my friend, I decided to grab a room last minute. I called and they had availability. I spoke with a gal named Paige and when I entered the lobby she remembered our phone conversation and asked for all my required items for check in (ID and credit card) as well as my AAA card. Paige is so great and nice, everything that you need to be in the hospitality industry. My room was great size and clean. Simple and easy for a single king with comfy pillows too! What I was really blown away with was their breakfast that they offer in their lobby. I work in the hospitality industry and my hotels lobby has nothing on what they have here. There was everything from omelettes, pancakes, yogurt, sausage, toast, bagels, cream cheese and jam, milk and cereal!!! This is so creat and the best. Thanks to the team for all the smiles! I know where I’ll be staying when I’m back in town!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r564797252-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>564797252</t>
+  </si>
+  <si>
+    <t>Very nice place to stay at a surprisingly low price</t>
+  </si>
+  <si>
+    <t>The location was very nice and clean.  Nice room, comfortable beds, decent breakfast, and you can have your pets with you.   It is next to the train tracks but it didn't keep me from getting a good nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location was very nice and clean.  Nice room, comfortable beds, decent breakfast, and you can have your pets with you.   It is next to the train tracks but it didn't keep me from getting a good nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r562049597-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>562049597</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Free Parking, Recently Renovated, Hot Breakfast</t>
+  </si>
+  <si>
+    <t>My room was on the top floor facing the pool. The room was a good size but missing a desk chair and a garbage can due to on going renovations. It was fairly quiet but you could hear the pool gate open and close quite a bit. The room had a sliding door which was nice to let fresh air in, but it was a very small balcony. The breakfast area is very small, but does offer hot food. There was a bus load of tourist so I had to wait in line as there was no standing room in the small area. The food was okay, waffles, cheese omelettes and cereal etc.. The staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>My room was on the top floor facing the pool. The room was a good size but missing a desk chair and a garbage can due to on going renovations. It was fairly quiet but you could hear the pool gate open and close quite a bit. The room had a sliding door which was nice to let fresh air in, but it was a very small balcony. The breakfast area is very small, but does offer hot food. There was a bus load of tourist so I had to wait in line as there was no standing room in the small area. The food was okay, waffles, cheese omelettes and cereal etc.. The staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r559141104-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>559141104</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The location of this hotel is excellent, the staff very professional and the bedding is very soft with good sleeping pillows.  The hotel caters to international tourism making it difficult to find a place to sit at breakfast and not having to wait for food to be replenished and the noise level in the hallways is very loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>The location of this hotel is excellent, the staff very professional and the bedding is very soft with good sleeping pillows.  The hotel caters to international tourism making it difficult to find a place to sit at breakfast and not having to wait for food to be replenished and the noise level in the hallways is very loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r558948084-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>558948084</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>traveling  with sports group</t>
+  </si>
+  <si>
+    <t>We went to Pomona for a baseball series for grandson. Travelling with me was my daughter. The location was close to the ball fields. The front desk recommended and excellent restaurant in area the family very much enjoyed.  We were able to easily get on and off the freeways to the motel and to our field destinations. We enjoyed our stay in Pomona very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>We went to Pomona for a baseball series for grandson. Travelling with me was my daughter. The location was close to the ball fields. The front desk recommended and excellent restaurant in area the family very much enjoyed.  We were able to easily get on and off the freeways to the motel and to our field destinations. We enjoyed our stay in Pomona very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r555568092-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>555568092</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Plasencia wedding</t>
+  </si>
+  <si>
+    <t>5 minute drive from the amazing Coco palm restaurant (great wedding venue &amp; brunch)I recently Booked 5 rooms for my wedding party and family. everyone agreed the staff was very polite. Rooms clean and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>5 minute drive from the amazing Coco palm restaurant (great wedding venue &amp; brunch)I recently Booked 5 rooms for my wedding party and family. everyone agreed the staff was very polite. Rooms clean and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r553538647-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>553538647</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>LOVE IT, LOVE IT!!!!</t>
+  </si>
+  <si>
+    <t>Love it love it love it we always come there and stay at the Pomona La Quinta. My godchildren and a daughter in college lives there as well as other family members so it's easy access to her college which is Cal Poly this is her final year however we still plan on returning to see the god kids please send us any type of discounts that may be available or special rates we would not have it any other way or stay in the other place but the LaQuintaMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded January 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2018</t>
+  </si>
+  <si>
+    <t>Love it love it love it we always come there and stay at the Pomona La Quinta. My godchildren and a daughter in college lives there as well as other family members so it's easy access to her college which is Cal Poly this is her final year however we still plan on returning to see the god kids please send us any type of discounts that may be available or special rates we would not have it any other way or stay in the other place but the LaQuintaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r552614127-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>552614127</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>So excellent for the price !</t>
+  </si>
+  <si>
+    <t>We booked a room with 2 queen beds. We had an excellent hot breakfast the following morning. I was very impressed with how easyit was to get "odd little" extra perks at no additional charge ! We will definitely stay at La Quinta again !MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Front Office Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>We booked a room with 2 queen beds. We had an excellent hot breakfast the following morning. I was very impressed with how easyit was to get "odd little" extra perks at no additional charge ! We will definitely stay at La Quinta again !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r549593254-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>549593254</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>weekend visit</t>
+  </si>
+  <si>
+    <t>clean hotel, free breakfast, fast check in /out, good customer service, excellent housekeeping staff. Great location easy freeway access, nice quiet residential area. Nice pool and spa. Truly enjoyed our stay here, I would gladly stay here again. Worth the money spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>clean hotel, free breakfast, fast check in /out, good customer service, excellent housekeeping staff. Great location easy freeway access, nice quiet residential area. Nice pool and spa. Truly enjoyed our stay here, I would gladly stay here again. Worth the money spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r547670678-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>547670678</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r547270476-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>547270476</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent Management and Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently stayed at the Laquinta in a last minute emergency with my family, in addition I used their Corporate Meeting Rooms for several weeks for a business event.In both instances I found the service and facilities to exceed my expectation.Denise and Kay both went over and above to make any arrangements we needed.Great team of people, great value. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543744270-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>543744270</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Great Hotel with excellent prices, breakfast, location and accommodations.  Friendly staff.  Pool and Hot Tub.  Quiet.  Easy access to freeway, shopping, and local attractions.  Secure entrances and hallways.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Front Office Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Great Hotel with excellent prices, breakfast, location and accommodations.  Friendly staff.  Pool and Hot Tub.  Quiet.  Easy access to freeway, shopping, and local attractions.  Secure entrances and hallways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543378285-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>543378285</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>5 Star ⭐️ Inn</t>
+  </si>
+  <si>
+    <t>Really loved this place.  It was clean and very inviting.  Front Office was professional and gracious.  Rooms were clean and neat.  Very quiet in relation to other hotels and inns.  Love ❤️ it.  Would like to go back and stay there some near future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Front Office Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Really loved this place.  It was clean and very inviting.  Front Office was professional and gracious.  Rooms were clean and neat.  Very quiet in relation to other hotels and inns.  Love ❤️ it.  Would like to go back and stay there some near future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543230618-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>543230618</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Bathroom dirty and sheets</t>
+  </si>
+  <si>
+    <t>If the cleaning staff would actually do their job ....the stay would not have been bad. Other than that it was a good location to stay at and the front desk staff was really helpful with our room issues MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Front Office Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>If the cleaning staff would actually do their job ....the stay would not have been bad. Other than that it was a good location to stay at and the front desk staff was really helpful with our room issues More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r538992910-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>538992910</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great Value for the Price</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and a great price for the value.  Nice location right off the freeway.  I stayed here with my wife and 6 year old son.  They both enjoyed it.  The bed was really comfortable and you can hardly hear any noise from the other rooms.  Would definitely stay here again when traveling near this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert H, Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and a great price for the value.  Nice location right off the freeway.  I stayed here with my wife and 6 year old son.  They both enjoyed it.  The bed was really comfortable and you can hardly hear any noise from the other rooms.  Would definitely stay here again when traveling near this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r537551748-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>537551748</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>La Quinta Pomona</t>
+  </si>
+  <si>
+    <t>Nice location.  Room attendants need to ensure the rooms are secure before returning them for rental.  There were tour groups at this location.  Unable to take advantage of the breakfast.  Location os good.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r537221164-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>537221164</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here 2 nights. The hotel was nice and the room was clean. The only thing I didn’t like there was the balcony(it looks like the housekeeper didn’t clean it for a while). The breakfast was really good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r536877080-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>536877080</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Great little hotel. Staff are friendly. Room is very clean and tidy, and beds are very comfortable. My only complaint is the noise of the elevator at all hours and we were two rooms from the elevator . Other than that, lovely hote and would stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r535222347-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>535222347</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Absolutely love this La Quinta!!  I stay with my dog and there is plenty of green grass for him to walk in. Safe neighborhood and super friendly staff. The hotel is located close to everything. If I didn't travel with a dog I would love to use the pool.  It was spotless and so inviting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r534051555-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>534051555</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Very poor</t>
+  </si>
+  <si>
+    <t>I thought the location was great but the cleanliness of the rooms were terrible. To find roaches in the room was nasty. We were very disappointed in the cleanliness. Also the service at night when we arrived. I didn't catch the gentlemens name but he was really rude and it seem like we were a bother to him. He may have been at the end of his shift but there was no reason to be treated like that. MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>I thought the location was great but the cleanliness of the rooms were terrible. To find roaches in the room was nasty. We were very disappointed in the cleanliness. Also the service at night when we arrived. I didn't catch the gentlemens name but he was really rude and it seem like we were a bother to him. He may have been at the end of his shift but there was no reason to be treated like that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r528166496-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>528166496</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Really Pet Friendly</t>
+  </si>
+  <si>
+    <t>These folks love pets and treat them like guests.  Complete manicured area to walk and do your business with a clean up station nearby.  Even saw food and water under a patio that was available if you wanted it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Robert H, Front Office Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>These folks love pets and treat them like guests.  Complete manicured area to walk and do your business with a clean up station nearby.  Even saw food and water under a patio that was available if you wanted it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r524269857-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>524269857</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Pleasant staff, clean, quiet</t>
+  </si>
+  <si>
+    <t>We almost always enjoy La Quinta Inns. This was typical. Good beds. Quiet. Well appointed. Reasonably priced. Very friendly staff. Great location in Pomona, close to Cal Poly. The breakfasts are never great, but edible.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r518544339-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>518544339</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r506181946-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>506181946</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Bad Bad very Bad</t>
+  </si>
+  <si>
+    <t>Very awful experience the smell inside the room was horrible my bed smell like a dead animal,I took pictures because this is unhealthy I got a very bad rash on my body, I will never use this brand ever again I rather sleep on the streets that's how bad it was .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Very awful experience the smell inside the room was horrible my bed smell like a dead animal,I took pictures because this is unhealthy I got a very bad rash on my body, I will never use this brand ever again I rather sleep on the streets that's how bad it was .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r505347767-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>505347767</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Staff and Management are very professional and go above and beyond to make sure your stay is the best it can be! Exceptional Breakfast and plenty to go around! there were 4 busloads of tourists there, but the staff kept all breakfast items full!  Great location in Pomona!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff and Management are very professional and go above and beyond to make sure your stay is the best it can be! Exceptional Breakfast and plenty to go around! there were 4 busloads of tourists there, but the staff kept all breakfast items full!  Great location in Pomona!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r504368229-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>504368229</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Dissappointed</t>
+  </si>
+  <si>
+    <t>Never ask for early check in and check your beds and sleeper sofa and also check if there is a refrigerator in the room. Very dissapointed with this hotel. My first time to stay at La Quinta and was not impressiveMoreShow less</t>
+  </si>
+  <si>
+    <t>Never ask for early check in and check your beds and sleeper sofa and also check if there is a refrigerator in the room. Very dissapointed with this hotel. My first time to stay at La Quinta and was not impressiveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r496775415-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>496775415</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>A Great highway Hotel</t>
+  </si>
+  <si>
+    <t>▪A good hotel ▪very helpful staff ▪great big rooms ▪decent swimming pool ▪Nice breakfast ▪this is a self service hotel no one will help you with your luggage and no room service This hotel is one hr drive from LAX INTERNATIONAL AIRPORT. I stayed in this hotel as it was pre booked by the tour guide on my 10 day california holiday. But if you planning to explore the city ,this hotel will be to far book the hotel in the downtown area it will save a time .Rest this hotel was Safe and relaxing to stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r492914938-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>492914938</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>The hotel itself is a very nice hotel.  The location is just outside the Cal-Poly Pomona Campus in a very quiet neighborhood.  The rooms are very clean.  The hotel amenities include a business center, workout room, pool, and hot tub.   The registration staff, however, needs much more education in how to handle those who like to pay everything in cash upon arrival. Overall a very good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself is a very nice hotel.  The location is just outside the Cal-Poly Pomona Campus in a very quiet neighborhood.  The rooms are very clean.  The hotel amenities include a business center, workout room, pool, and hot tub.   The registration staff, however, needs much more education in how to handle those who like to pay everything in cash upon arrival. Overall a very good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r492914934-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>492914934</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY</t>
+  </si>
+  <si>
+    <t>Very well kept property and very clean rooms.  Kids enjoyed the Pool and Jacuzzi, also very clean. Breakfast is a bit of a cluster if the hotel is busy.  It was very busy when we were there, other than that being a little unorganized everything was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very well kept property and very clean rooms.  Kids enjoyed the Pool and Jacuzzi, also very clean. Breakfast is a bit of a cluster if the hotel is busy.  It was very busy when we were there, other than that being a little unorganized everything was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r483997363-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>483997363</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Poor Service, Rude Staff</t>
+  </si>
+  <si>
+    <t>1. The key didn't work - not a big deal, but they have the outdated key cards2. Food delivery person was not allowed to deliver to the room - they have no room service3. 2 pm late check out was not honored without extreme negotiations4. Staff shut the door in my face while I was telling her that I called for the late check out.5. Several of the staff were confused about the late check out policy6. I was charged for late check out when it's listed under La Quinta Returns membership benefitsMoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>1. The key didn't work - not a big deal, but they have the outdated key cards2. Food delivery person was not allowed to deliver to the room - they have no room service3. 2 pm late check out was not honored without extreme negotiations4. Staff shut the door in my face while I was telling her that I called for the late check out.5. Several of the staff were confused about the late check out policy6. I was charged for late check out when it's listed under La Quinta Returns membership benefitsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r491659497-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>491659497</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Simple but clean and good breakfast</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here while traveling for a dance competition. The room was clean, the staff friendly, and the breakfast was good. Our room was missing a few things (desk chair, luggage stand), but it was overall clean and updated. The breakfast had good options (yogurt, fruit, waffles, pre-made egg omelets, cereal, bagels, juice, coffee) and there was a good amount of seating. My daughter loved the bushes shaped like elephants out front! Good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r480243170-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>480243170</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very decent hotel </t>
+  </si>
+  <si>
+    <t>We really enjoyed the breakfast .. the lady who was handling the breakfast area heard me ask for bacon and she actually made us some hot bacon.. great customer service and it's hard to fine . The hotel is clean and I would definitely stay here again if I'm in the area.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r477309461-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>477309461</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>The location was great, clean and confortable bedrooms. The staff was very helpful and cordiality was everywhere. We extended our two nights to three and there was no problem, the upgrade was very smooth and easy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r491659322-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>491659322</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>La Quinta Pomona another excellent stay</t>
+  </si>
+  <si>
+    <t>Very nice place and staff Robert was great with my upcoming reservation. Room was very clean and had good quality towels . Shower was great with good temperature and water pressure. Will stay again. When I am in the Cal Poly area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r474193793-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>474193793</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Would have been a great hotel but...</t>
+  </si>
+  <si>
+    <t>room was clean, had a nice patio through our sliding door. bathroom was clean, didn't like that there was no trash can by the sink which is outside the bathroom. Laundry room was filthy, trash was overflowing. No laundry soap was available at the front desk.first night we noticed there was a cop car circling, then my friend headed home to discover her car was broken into when it was in the parking lot. which was very dark to begin with. I checked out the following day fearing that it's a regular occurrence, front desk didn't even batted an eyelid when I said i was checking out because my friend's car was broken into. No question or sorry that happened to your friend, nothing!!! and to think that after she had left, I was walking to 7/11 to buy laundry soap and softener because the hotel did not have any! Why would you have multi laundry rooms and not have supplies for it? Do people travel with laundry soaps??? Breakfast was okay, there was imitation eggs, it looked like it was microwaved and it had a slight rubbery texture so we stuck with their make your own waffles.Beds were comfortable but after the car incident, my husband and I could not sleep, I was always looking outside to see our rental car.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>room was clean, had a nice patio through our sliding door. bathroom was clean, didn't like that there was no trash can by the sink which is outside the bathroom. Laundry room was filthy, trash was overflowing. No laundry soap was available at the front desk.first night we noticed there was a cop car circling, then my friend headed home to discover her car was broken into when it was in the parking lot. which was very dark to begin with. I checked out the following day fearing that it's a regular occurrence, front desk didn't even batted an eyelid when I said i was checking out because my friend's car was broken into. No question or sorry that happened to your friend, nothing!!! and to think that after she had left, I was walking to 7/11 to buy laundry soap and softener because the hotel did not have any! Why would you have multi laundry rooms and not have supplies for it? Do people travel with laundry soaps??? Breakfast was okay, there was imitation eggs, it looked like it was microwaved and it had a slight rubbery texture so we stuck with their make your own waffles.Beds were comfortable but after the car incident, my husband and I could not sleep, I was always looking outside to see our rental car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r468407170-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>468407170</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent for one night stay.</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise.  The room was very clean and stylish, and the bed was to die for, very comfortable, felt like I was sleeping in my very own bed.  Nice 40" flat screen tv.  Would stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r467681581-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>467681581</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The hotel is 30 minutes from Los Angeles Airport. Very good service, quiet place, first class service, has pool, gym, excellent breakfast buffet, free wifi and parking. The place is close to some Universities, so the neighborhood is quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r466884421-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>466884421</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>OK place, but not for a long stay</t>
+  </si>
+  <si>
+    <t>I had an event at the Fairgrounds and needed a place to stay for one night. For the price of the room, I guess what the hotel offers was fair.The room was clean, but the bathroom could use a bit of floor corner scrubbing. The second TP holder was missing the TP roll bar. They made an effort to paint the room, but the trim looked like it had flaws like cracks and chips just painted over them.On the good side, the beds were nice. Sheets were clean. Room furniture seemed updated. There seemed to be a lack of sound insulation as you can hear conversations from down the hall and from other rooms. I'm glad I was tired that night and was able to get sleep.Breakfast was a nice touch as there really are not that many places to eat in close proximity of the hotel.So.....for the price of the room, it's OK. I don't think I would plan an extended stay in it though.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had an event at the Fairgrounds and needed a place to stay for one night. For the price of the room, I guess what the hotel offers was fair.The room was clean, but the bathroom could use a bit of floor corner scrubbing. The second TP holder was missing the TP roll bar. They made an effort to paint the room, but the trim looked like it had flaws like cracks and chips just painted over them.On the good side, the beds were nice. Sheets were clean. Room furniture seemed updated. There seemed to be a lack of sound insulation as you can hear conversations from down the hall and from other rooms. I'm glad I was tired that night and was able to get sleep.Breakfast was a nice touch as there really are not that many places to eat in close proximity of the hotel.So.....for the price of the room, it's OK. I don't think I would plan an extended stay in it though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r461835062-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>461835062</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Cheerful room, kind staff</t>
+  </si>
+  <si>
+    <t>I arrived on an early morning flight. The room wasn't available but the staff gave me breakfast and a room as soon as it was free. Cheerful colours in the rooms, excellent location for visiting cal Poly Pomona.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r491658460-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>491658460</t>
+  </si>
+  <si>
+    <t>Happy To Have LaQuinta On My Side</t>
+  </si>
+  <si>
+    <t>As Registrar for an annual event in the area I am delighted with what La Quinta has done with this location. The hotel has been newly renovated. I recommend it with out any hesitation. My room was spacious, comfortable, clean, with every thing I needed and more. Breakfast had lots of variety, hot foods, everything well stocked and good seating options. Cal Poly Pomona is one mile away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r461217880-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>461217880</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Decent, but Noisy</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting my daughter at CPP.  The room was spacious and newly renovated.  Parking was easy and convenient. The hotel staff were very friendly and the place was very clean.  There was a small work out room that was clean, also. Breakfast was descent, but the only option for fruit was an orange. We stayed on the 4th floor and the only problem was the loud trains and there was a constant, vibrating, ticking noise above our room that made it difficult to go to sleep and woke us up in the morning and several times during the night. The price was a bit more than what I usually pay in this general area. I would probably stay again, if the loud vibrating noise was fixed and hopefully, if the price is more competitive.  It was decently pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting my daughter at CPP.  The room was spacious and newly renovated.  Parking was easy and convenient. The hotel staff were very friendly and the place was very clean.  There was a small work out room that was clean, also. Breakfast was descent, but the only option for fruit was an orange. We stayed on the 4th floor and the only problem was the loud trains and there was a constant, vibrating, ticking noise above our room that made it difficult to go to sleep and woke us up in the morning and several times during the night. The price was a bit more than what I usually pay in this general area. I would probably stay again, if the loud vibrating noise was fixed and hopefully, if the price is more competitive.  It was decently pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r451231703-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>451231703</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>The rooms are great and recently renovated and the include a mini fridge and a microwave, we stayed in two rooms because the first night we had a guest upstairs that made a lot of noise so we requested a change of room the next morning and the staff complied immediately, our sleep quality improved as soon as this happened.  Daily cleaning is good and the complimentary breakfast is one of the best I have seen.  The problem is the number of tables since they are usually taken by loads of Korean tourists, but this depends on the time you go to the hotel lobby.  We stayed there for a week and I honestly didn't want to leave.  I recommend this to everyone.  It has a pool which we didn't use because of the low temperature and the WiFi was great.  They also offer free parking which is nice.  Make sure to see the brochures where the stairs are as you may find discounts on some of the things you want to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The rooms are great and recently renovated and the include a mini fridge and a microwave, we stayed in two rooms because the first night we had a guest upstairs that made a lot of noise so we requested a change of room the next morning and the staff complied immediately, our sleep quality improved as soon as this happened.  Daily cleaning is good and the complimentary breakfast is one of the best I have seen.  The problem is the number of tables since they are usually taken by loads of Korean tourists, but this depends on the time you go to the hotel lobby.  We stayed there for a week and I honestly didn't want to leave.  I recommend this to everyone.  It has a pool which we didn't use because of the low temperature and the WiFi was great.  They also offer free parking which is nice.  Make sure to see the brochures where the stairs are as you may find discounts on some of the things you want to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r450864729-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>450864729</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here the other night on our way to Del Mar. Room was clean and large with a balcony. Bed was comfortable. Only bad part was breakfast. I mean hot hardboiled eggs. And all high carb options. We would stay again. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r448410530-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>448410530</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>What a nice and pleasant stay, would do it again</t>
+  </si>
+  <si>
+    <t>This property was recently remodeled and oh-my it was done in a first-class style.  Very secure environment, need room key to enter almost every door.  Check-in did not go as smoothly as it should have, the gentlemen night clerk was very pleasant but did not understand “Express Check In” for an Elite Rewards Member (ask for credit card and all the things as though I have never stayed at a LQ (well over 25 stays in 2016).  Business center was available, free breakfast with eggs, sausage, bread and a whole bunch of other items to consume. Needed to print our tickets to Sea World and Bianca was so wonderful to work (day desk clerk) with just an added attraction to an already outstanding 2-night stay.  Our room was clean and big with all the things you would except in a 5-star resort.  Parking was all on the same property.  Elevators were all very conveniently located.  Workout Gym on sight for guest only.  High speed Wi-Fi was working just fine which is a must for me where ever I stay.  Very nice pool area.I would stay again at this property and would recommend LQ Pomona to anyone!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This property was recently remodeled and oh-my it was done in a first-class style.  Very secure environment, need room key to enter almost every door.  Check-in did not go as smoothly as it should have, the gentlemen night clerk was very pleasant but did not understand “Express Check In” for an Elite Rewards Member (ask for credit card and all the things as though I have never stayed at a LQ (well over 25 stays in 2016).  Business center was available, free breakfast with eggs, sausage, bread and a whole bunch of other items to consume. Needed to print our tickets to Sea World and Bianca was so wonderful to work (day desk clerk) with just an added attraction to an already outstanding 2-night stay.  Our room was clean and big with all the things you would except in a 5-star resort.  Parking was all on the same property.  Elevators were all very conveniently located.  Workout Gym on sight for guest only.  High speed Wi-Fi was working just fine which is a must for me where ever I stay.  Very nice pool area.I would stay again at this property and would recommend LQ Pomona to anyone!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r435369503-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>435369503</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Looks nice, but fell short.</t>
+  </si>
+  <si>
+    <t>This hotel is like your standard hotel, so picking it was based on your expectation of past hotel experiences. However housekeeping was inconsistent. One day they would make one bed and not the other. The appropriate count and type of towels were never left. They would even take a towel that is hanging up for use again and trash the soap I was happy to use again. What a waste! I stayed for a few days. The beds are your standard sub-par hotel beds. The pillows are the worst! Sleep was not great. I got to experience the frequent influx of foreign tour busses coming and going. With it the noise of travelers 40 at a time coming in the middle of the night and breakfast in the morning was a joke trying to battle 40 foreign tourists for coffee and a place to sit.  This hotel values quantity of quality, so if you need a hotel for a night or two while passing through and don't care about the service, then stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is like your standard hotel, so picking it was based on your expectation of past hotel experiences. However housekeeping was inconsistent. One day they would make one bed and not the other. The appropriate count and type of towels were never left. They would even take a towel that is hanging up for use again and trash the soap I was happy to use again. What a waste! I stayed for a few days. The beds are your standard sub-par hotel beds. The pillows are the worst! Sleep was not great. I got to experience the frequent influx of foreign tour busses coming and going. With it the noise of travelers 40 at a time coming in the middle of the night and breakfast in the morning was a joke trying to battle 40 foreign tourists for coffee and a place to sit.  This hotel values quantity of quality, so if you need a hotel for a night or two while passing through and don't care about the service, then stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r429768711-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>429768711</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This is a nice la Quinta, located near the college. It's very clean, decent sized rooms, and there's a nice pool. We stayed a couple nights with no problems. Easy drive to the Fairplex. Priced a bit too high on the weekend we were there..</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r420880058-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>420880058</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>College days</t>
+  </si>
+  <si>
+    <t>Close to the school, clean rooms, clean hotel.  Great location but you pay for it compared to other hotels.   The thing that i didn't like was that there is not allot of restaurants close by.   Right off the freeway but still far from things to do.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r415176665-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>415176665</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>WE LOVED THIS HOTEL!!! 👍🏾👍🏾👍🏾🙌🏾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me, my mother and little cousin stayed at the La Quinta Inn this past weekend and we absolutely loved it!! very clean and the breakfast was great!! Especially JENNIFER!! she was awesome. Great STAFF!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r414529118-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>414529118</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>this is very close to the Cal state Pomona, so the location is very nice if you have things to do nearby the campus. The environment is good and clean. We stay there because we need to join the wedding in the campus. We recommend this nice hotel.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r413412373-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>413412373</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Disgusting, flea-ridden, unsafe. Stay away.</t>
+  </si>
+  <si>
+    <t>I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put...I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put a screw in lieu of a proper lock. I’ve attached pictures of the said window and my lovely view of the parking lot. I guess it’s better I discovered the open window in the morning and not the evening before otherwise I would’ve been too afraid to fall asleep amidst crawling fleas and unlocked windows. This is a terrible place and I do not recommend it, stay here at your own risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put...I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put a screw in lieu of a proper lock. I’ve attached pictures of the said window and my lovely view of the parking lot. I guess it’s better I discovered the open window in the morning and not the evening before otherwise I would’ve been too afraid to fall asleep amidst crawling fleas and unlocked windows. This is a terrible place and I do not recommend it, stay here at your own risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r378642056-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>378642056</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>MANAGER ROBERT IS NOT A PROFESSIONAL</t>
+  </si>
+  <si>
+    <t>So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because...So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because I just might go home and call my credit card company and claim that I did not use the card for that service (fraud).  I told him, how can I call my credit card company and claim that, if I have the credit card company on the line right now and I know they are recording my call.  Even the credit card company was shock to hear him say that. (Not sure what type of people he deals with but I am not one of them).  Robert then offers to call upper management.  So he goes into the room on the side.  I notice as he goes in about 10-15 housekeepers all walked in behind him.  5 to 10 minutes go by and then they all come out laughing, talking etc.  By this time I ask the desk clerk my status.  He states let me checked, so he goes to the same room and the door closes.  More housekeepers are coming out.  Out comes Robert.  He states I am unable to assist, I spoke with upper management and they said no.  I was vivid.  He claims to have called his boss at the same time he had a meeting with the housekeeper.  I could not believe it.  He lied to my face.  I was so upset.  I knew the credit card problem was not going to be resolved, I understand policies and what not….but ROBERT lied.  He did not even call his boss/upper management.  He could not have called, as the doors open and closed in those 5 to 10 minutes I saw him standing in the middle of the housekeepers talking and laughing.  You expect me to believe that you called.  You are a liar.  I walked out the front lobby.  There was nothing I could have done.  What really upset me was his lie.  Not even the fact that the housekeeper did not vacuum my room on Saturday or that my husband killed a roach in the room.  Or that on Sunday the housekeeper did not respect the fact that I had a do not disturb sign on the outside of the door and decides to come in as we are changing.  No that did not bother me…it was the fact that ROBERT did not do what he said was going to do and assist me.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, Guest Relations Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because...So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because I just might go home and call my credit card company and claim that I did not use the card for that service (fraud).  I told him, how can I call my credit card company and claim that, if I have the credit card company on the line right now and I know they are recording my call.  Even the credit card company was shock to hear him say that. (Not sure what type of people he deals with but I am not one of them).  Robert then offers to call upper management.  So he goes into the room on the side.  I notice as he goes in about 10-15 housekeepers all walked in behind him.  5 to 10 minutes go by and then they all come out laughing, talking etc.  By this time I ask the desk clerk my status.  He states let me checked, so he goes to the same room and the door closes.  More housekeepers are coming out.  Out comes Robert.  He states I am unable to assist, I spoke with upper management and they said no.  I was vivid.  He claims to have called his boss at the same time he had a meeting with the housekeeper.  I could not believe it.  He lied to my face.  I was so upset.  I knew the credit card problem was not going to be resolved, I understand policies and what not….but ROBERT lied.  He did not even call his boss/upper management.  He could not have called, as the doors open and closed in those 5 to 10 minutes I saw him standing in the middle of the housekeepers talking and laughing.  You expect me to believe that you called.  You are a liar.  I walked out the front lobby.  There was nothing I could have done.  What really upset me was his lie.  Not even the fact that the housekeeper did not vacuum my room on Saturday or that my husband killed a roach in the room.  Or that on Sunday the housekeeper did not respect the fact that I had a do not disturb sign on the outside of the door and decides to come in as we are changing.  No that did not bother me…it was the fact that ROBERT did not do what he said was going to do and assist me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r376296861-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>376296861</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely great hotel experience! </t>
+  </si>
+  <si>
+    <t>My wife and I travel quite a bit which means we stay in various hotels and have had an assortment of experiences. The La Quinta Inn &amp; Suites has to be most likely the best experience we have ever had in a hotel. The hotel was actually underpriced in comparison to like hotels in the area. The lobby and rooms are all upgraded with a modern feel which we enjoyed. The hotel staff were some of the nicest and most helpful hotel staff we have ever encountered! Even though this is a very high tourist attracting area and hotel, the staff did not become indifferent or annoyed but instead we're very pleasant and personable with each guest. We misplaced our key card and they quickly and easily gave us new ones, we asked for towels several times and they accommodated, we had a miss of a couple of items one day from housekeeping and they immediately corrected it. Best of all parking was free, wifi was free, and breakfast is also free. This is literally one of the only hotels we found in the area which offered all three at no expense. The hotel was super cleanly and you could see staff nearly every minute of the day scurrying to keep the hotel cleanly, with a smile. 
+The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a...My wife and I travel quite a bit which means we stay in various hotels and have had an assortment of experiences. The La Quinta Inn &amp; Suites has to be most likely the best experience we have ever had in a hotel. The hotel was actually underpriced in comparison to like hotels in the area. The lobby and rooms are all upgraded with a modern feel which we enjoyed. The hotel staff were some of the nicest and most helpful hotel staff we have ever encountered! Even though this is a very high tourist attracting area and hotel, the staff did not become indifferent or annoyed but instead we're very pleasant and personable with each guest. We misplaced our key card and they quickly and easily gave us new ones, we asked for towels several times and they accommodated, we had a miss of a couple of items one day from housekeeping and they immediately corrected it. Best of all parking was free, wifi was free, and breakfast is also free. This is literally one of the only hotels we found in the area which offered all three at no expense. The hotel was super cleanly and you could see staff nearly every minute of the day scurrying to keep the hotel cleanly, with a smile. The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a few miles from food and groceries yet we were enough of the city to seem safe and quiet. The only fault we could find was housekeeping did let themselves in twice without warning, which was an embarrassing encounter. However I believe it was just a lack of training. Over all my wife and I recommend this hotel in the highest of ways! Thank you La Quinta staff for making our first visit to Cali so very pleasant! MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier B, General Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I travel quite a bit which means we stay in various hotels and have had an assortment of experiences. The La Quinta Inn &amp; Suites has to be most likely the best experience we have ever had in a hotel. The hotel was actually underpriced in comparison to like hotels in the area. The lobby and rooms are all upgraded with a modern feel which we enjoyed. The hotel staff were some of the nicest and most helpful hotel staff we have ever encountered! Even though this is a very high tourist attracting area and hotel, the staff did not become indifferent or annoyed but instead we're very pleasant and personable with each guest. We misplaced our key card and they quickly and easily gave us new ones, we asked for towels several times and they accommodated, we had a miss of a couple of items one day from housekeeping and they immediately corrected it. Best of all parking was free, wifi was free, and breakfast is also free. This is literally one of the only hotels we found in the area which offered all three at no expense. The hotel was super cleanly and you could see staff nearly every minute of the day scurrying to keep the hotel cleanly, with a smile. 
+The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a...My wife and I travel quite a bit which means we stay in various hotels and have had an assortment of experiences. The La Quinta Inn &amp; Suites has to be most likely the best experience we have ever had in a hotel. The hotel was actually underpriced in comparison to like hotels in the area. The lobby and rooms are all upgraded with a modern feel which we enjoyed. The hotel staff were some of the nicest and most helpful hotel staff we have ever encountered! Even though this is a very high tourist attracting area and hotel, the staff did not become indifferent or annoyed but instead we're very pleasant and personable with each guest. We misplaced our key card and they quickly and easily gave us new ones, we asked for towels several times and they accommodated, we had a miss of a couple of items one day from housekeeping and they immediately corrected it. Best of all parking was free, wifi was free, and breakfast is also free. This is literally one of the only hotels we found in the area which offered all three at no expense. The hotel was super cleanly and you could see staff nearly every minute of the day scurrying to keep the hotel cleanly, with a smile. The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a few miles from food and groceries yet we were enough of the city to seem safe and quiet. The only fault we could find was housekeeping did let themselves in twice without warning, which was an embarrassing encounter. However I believe it was just a lack of training. Over all my wife and I recommend this hotel in the highest of ways! Thank you La Quinta staff for making our first visit to Cali so very pleasant! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r371843500-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>371843500</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r356746872-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>356746872</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>The price was right...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 7 nights as a family of 4.  The price was right, it wasn't too far from beaches or Disneyland and hot breakfast was available daily.  The hotel looked nice.  It has recently been redecorated.  Our room was spacious &amp; comfortable.  My main issue with the room was the doors.  They had recently been painted, and we had to slam both the bathroom &amp; our main door to shut them.  Later into our stay, we noticed that the breakfast offerings would run out (mostly just the fruit &amp; yogurt) before the service was over.  There was also not much variety from day to day either.  However, the super friendly &amp; accommodating staff made up for any shortcomings.  So, for an inexpensive hotel, it worked for us and provided the necessary needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Javier B, General Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 7 nights as a family of 4.  The price was right, it wasn't too far from beaches or Disneyland and hot breakfast was available daily.  The hotel looked nice.  It has recently been redecorated.  Our room was spacious &amp; comfortable.  My main issue with the room was the doors.  They had recently been painted, and we had to slam both the bathroom &amp; our main door to shut them.  Later into our stay, we noticed that the breakfast offerings would run out (mostly just the fruit &amp; yogurt) before the service was over.  There was also not much variety from day to day either.  However, the super friendly &amp; accommodating staff made up for any shortcomings.  So, for an inexpensive hotel, it worked for us and provided the necessary needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r351039443-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>351039443</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>The stay at the hotel was the best , good atmosphere , good breakfast , cordial , the price for a room is reasonable. Is near to California State University, the neighborhood is quiet and safe, Free Parking, Free Internet in all locatios, Pool, whirlpool. When return again I'll definitely this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The stay at the hotel was the best , good atmosphere , good breakfast , cordial , the price for a room is reasonable. Is near to California State University, the neighborhood is quiet and safe, Free Parking, Free Internet in all locatios, Pool, whirlpool. When return again I'll definitely this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r349282500-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>349282500</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>False Advertisement</t>
+  </si>
+  <si>
+    <t>We booked this place online because they advertised a "garden view" room. When we checked in and got to our room, our view is of shrubs, the parking lot in the back, and thr freeway. Where is the garden I paid extra for to see? It doesn't exist! To add to the problem, our window to this view DOES NOT LOCK! So quite literally, some drunk or rapist or what have you could easily just open it and come in while we are sleeping! I will never book at this location again, and even if it means staying at a low end, run down motel 6, I will stay there instead of here again. Never have I stayed at a La Quinta and dealt with this.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this place online because they advertised a "garden view" room. When we checked in and got to our room, our view is of shrubs, the parking lot in the back, and thr freeway. Where is the garden I paid extra for to see? It doesn't exist! To add to the problem, our window to this view DOES NOT LOCK! So quite literally, some drunk or rapist or what have you could easily just open it and come in while we are sleeping! I will never book at this location again, and even if it means staying at a low end, run down motel 6, I will stay there instead of here again. Never have I stayed at a La Quinta and dealt with this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r338719033-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>338719033</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Great for our overnight visit to Pomona.  We will</t>
+  </si>
+  <si>
+    <t>The rooms and lobby of this hotel have been completely renovated and the look is modern and stylish.  We had no problems with check in or service.  Our room was clean, the temperature was fine, and the beds were comfortable.  My only wish was that I'd prefer the sink/vanity to be actually inside the bathroom, not open to the bedroom, like some hotels (including this one) are.  So if privacy at the sink is crucial to you, please be aware.  Also, I agree with another review that you should choose a room other than the first floor.  The train noise was noticeable, but it is probably quieter with a front (pool) view.  Since we have regular events in that area, it's highly likely that we'll return -- the convenience, both from the freeway and to the event, was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The rooms and lobby of this hotel have been completely renovated and the look is modern and stylish.  We had no problems with check in or service.  Our room was clean, the temperature was fine, and the beds were comfortable.  My only wish was that I'd prefer the sink/vanity to be actually inside the bathroom, not open to the bedroom, like some hotels (including this one) are.  So if privacy at the sink is crucial to you, please be aware.  Also, I agree with another review that you should choose a room other than the first floor.  The train noise was noticeable, but it is probably quieter with a front (pool) view.  Since we have regular events in that area, it's highly likely that we'll return -- the convenience, both from the freeway and to the event, was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r337851794-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>337851794</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms, weird layout.</t>
+  </si>
+  <si>
+    <t>First of all, they don't mention that the non-balcony rooms are only on the first floor. When we checked in, the desk clerk gave me an attitude when I asked for a higher floor so I didn't even ask about how much more it would be to upgrade. The front area is separate from the rest of the hotel. That was a little bit annoying when we wanted to go get breakfast in the cold. The keys into the second building didn't work half the time. The room itself was super nice. We really enjoyed it. Upon parking we noticed one room had their window wide open and I kept thinking it would suck to have that room. Well sure enough that was our room. The windows are basically ground level so anyone can crawl into the room. I made my husband go and get the all clear before we all entered. About half an hour later I tried to make sure the window was securely closed and it wasn't. I called up and security came and he couldn't secure the window either. So they upgraded up to a balcony room. Same exact layout except for the balcony. I appreciated that. We came through on our way out of CA and stayed and just paid the extra for the balcony room to avoid any dangerous situations. Breakfast was good, plenty of room. Staff was friendly other than the guy who...First of all, they don't mention that the non-balcony rooms are only on the first floor. When we checked in, the desk clerk gave me an attitude when I asked for a higher floor so I didn't even ask about how much more it would be to upgrade. The front area is separate from the rest of the hotel. That was a little bit annoying when we wanted to go get breakfast in the cold. The keys into the second building didn't work half the time. The room itself was super nice. We really enjoyed it. Upon parking we noticed one room had their window wide open and I kept thinking it would suck to have that room. Well sure enough that was our room. The windows are basically ground level so anyone can crawl into the room. I made my husband go and get the all clear before we all entered. About half an hour later I tried to make sure the window was securely closed and it wasn't. I called up and security came and he couldn't secure the window either. So they upgraded up to a balcony room. Same exact layout except for the balcony. I appreciated that. We came through on our way out of CA and stayed and just paid the extra for the balcony room to avoid any dangerous situations. Breakfast was good, plenty of room. Staff was friendly other than the guy who first checked us in. Would stay here again. Biggest advice is ask for a room near an elevator since you have to take care of everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Javier B, General Manager at La Quinta Inn &amp; Suites Pomona, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>First of all, they don't mention that the non-balcony rooms are only on the first floor. When we checked in, the desk clerk gave me an attitude when I asked for a higher floor so I didn't even ask about how much more it would be to upgrade. The front area is separate from the rest of the hotel. That was a little bit annoying when we wanted to go get breakfast in the cold. The keys into the second building didn't work half the time. The room itself was super nice. We really enjoyed it. Upon parking we noticed one room had their window wide open and I kept thinking it would suck to have that room. Well sure enough that was our room. The windows are basically ground level so anyone can crawl into the room. I made my husband go and get the all clear before we all entered. About half an hour later I tried to make sure the window was securely closed and it wasn't. I called up and security came and he couldn't secure the window either. So they upgraded up to a balcony room. Same exact layout except for the balcony. I appreciated that. We came through on our way out of CA and stayed and just paid the extra for the balcony room to avoid any dangerous situations. Breakfast was good, plenty of room. Staff was friendly other than the guy who...First of all, they don't mention that the non-balcony rooms are only on the first floor. When we checked in, the desk clerk gave me an attitude when I asked for a higher floor so I didn't even ask about how much more it would be to upgrade. The front area is separate from the rest of the hotel. That was a little bit annoying when we wanted to go get breakfast in the cold. The keys into the second building didn't work half the time. The room itself was super nice. We really enjoyed it. Upon parking we noticed one room had their window wide open and I kept thinking it would suck to have that room. Well sure enough that was our room. The windows are basically ground level so anyone can crawl into the room. I made my husband go and get the all clear before we all entered. About half an hour later I tried to make sure the window was securely closed and it wasn't. I called up and security came and he couldn't secure the window either. So they upgraded up to a balcony room. Same exact layout except for the balcony. I appreciated that. We came through on our way out of CA and stayed and just paid the extra for the balcony room to avoid any dangerous situations. Breakfast was good, plenty of room. Staff was friendly other than the guy who first checked us in. Would stay here again. Biggest advice is ask for a room near an elevator since you have to take care of everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r336077253-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>336077253</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Pomona an Excellent Stay</t>
+  </si>
+  <si>
+    <t>Excellent Stay at La Quinta Pomona.I have stared prior  several times while it was a different hotel and name.I revisited the hotel 12/29/15 to see what it was like now.All I can say is that it now has a feel like a Four Diamond Hotel.Let me summarize. The Room are well appointed with lots of High Quality Towels for the Shower Tub and set in a Wine Rack style beneath a nice separate wash basin from the private bathroom.The Bed  was very comfortable with a nice comforter and the pillows were of high quality with perfect support.I am going to have to buy some of those pillows.The hotel has a great Breakfast ,with Eggs ,bacon and lots of other choices including yogurt and oatmeal.The Staff are exemplary , it was a pleasure to have them remember me from six months prior and ask me in the morning remembering my name how the room was.If you are looking for value as I as a Self Employed Contractor have to .Then this is the place to stay in Pomona.I will go back many times next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent Stay at La Quinta Pomona.I have stared prior  several times while it was a different hotel and name.I revisited the hotel 12/29/15 to see what it was like now.All I can say is that it now has a feel like a Four Diamond Hotel.Let me summarize. The Room are well appointed with lots of High Quality Towels for the Shower Tub and set in a Wine Rack style beneath a nice separate wash basin from the private bathroom.The Bed  was very comfortable with a nice comforter and the pillows were of high quality with perfect support.I am going to have to buy some of those pillows.The hotel has a great Breakfast ,with Eggs ,bacon and lots of other choices including yogurt and oatmeal.The Staff are exemplary , it was a pleasure to have them remember me from six months prior and ask me in the morning remembering my name how the room was.If you are looking for value as I as a Self Employed Contractor have to .Then this is the place to stay in Pomona.I will go back many times next year.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2219,4977 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>166</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>341</v>
+      </c>
+      <c r="X41" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>175</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>341</v>
+      </c>
+      <c r="X42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>341</v>
+      </c>
+      <c r="X43" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>291</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>341</v>
+      </c>
+      <c r="X46" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>376</v>
+      </c>
+      <c r="J47" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" t="s">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s">
+        <v>379</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>361</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>393</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" t="s">
+        <v>396</v>
+      </c>
+      <c r="K50" t="s">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s">
+        <v>398</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>393</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>393</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+      <c r="J52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>393</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>409</v>
+      </c>
+      <c r="X52" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>417</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" t="s">
+        <v>420</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>417</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>417</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>440</v>
+      </c>
+      <c r="J58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K58" t="s">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s">
+        <v>443</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>434</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>446</v>
+      </c>
+      <c r="J59" t="s">
+        <v>447</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" t="s">
+        <v>448</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>449</v>
+      </c>
+      <c r="O59" t="s">
+        <v>91</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>451</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>452</v>
+      </c>
+      <c r="J60" t="s">
+        <v>453</v>
+      </c>
+      <c r="K60" t="s">
+        <v>454</v>
+      </c>
+      <c r="L60" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>456</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>457</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>458</v>
+      </c>
+      <c r="J61" t="s">
+        <v>459</v>
+      </c>
+      <c r="K61" t="s">
+        <v>460</v>
+      </c>
+      <c r="L61" t="s">
+        <v>461</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>463</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>464</v>
+      </c>
+      <c r="J62" t="s">
+        <v>465</v>
+      </c>
+      <c r="K62" t="s">
+        <v>466</v>
+      </c>
+      <c r="L62" t="s">
+        <v>467</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>468</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>469</v>
+      </c>
+      <c r="X62" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" t="s">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s">
+        <v>476</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>477</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>479</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+      <c r="K64" t="s">
+        <v>481</v>
+      </c>
+      <c r="L64" t="s">
+        <v>482</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>484</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>485</v>
+      </c>
+      <c r="J65" t="s">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s">
+        <v>487</v>
+      </c>
+      <c r="L65" t="s">
+        <v>488</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>489</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>490</v>
+      </c>
+      <c r="J66" t="s">
+        <v>491</v>
+      </c>
+      <c r="K66" t="s">
+        <v>492</v>
+      </c>
+      <c r="L66" t="s">
+        <v>493</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>495</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>496</v>
+      </c>
+      <c r="J67" t="s">
+        <v>497</v>
+      </c>
+      <c r="K67" t="s">
+        <v>498</v>
+      </c>
+      <c r="L67" t="s">
+        <v>499</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>500</v>
+      </c>
+      <c r="O67" t="s">
+        <v>166</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>501</v>
+      </c>
+      <c r="X67" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>505</v>
+      </c>
+      <c r="J68" t="s">
+        <v>506</v>
+      </c>
+      <c r="K68" t="s">
+        <v>507</v>
+      </c>
+      <c r="L68" t="s">
+        <v>508</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>509</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>510</v>
+      </c>
+      <c r="X68" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>513</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>514</v>
+      </c>
+      <c r="J69" t="s">
+        <v>515</v>
+      </c>
+      <c r="K69" t="s">
+        <v>516</v>
+      </c>
+      <c r="L69" t="s">
+        <v>517</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>509</v>
+      </c>
+      <c r="O69" t="s">
+        <v>91</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>518</v>
+      </c>
+      <c r="X69" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>522</v>
+      </c>
+      <c r="J70" t="s">
+        <v>523</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>247</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>509</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>518</v>
+      </c>
+      <c r="X70" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>525</v>
+      </c>
+      <c r="J71" t="s">
+        <v>526</v>
+      </c>
+      <c r="K71" t="s">
+        <v>527</v>
+      </c>
+      <c r="L71" t="s">
+        <v>528</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>529</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>530</v>
+      </c>
+      <c r="X71" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>421</v>
+      </c>
+      <c r="L72" t="s">
+        <v>536</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>537</v>
+      </c>
+      <c r="O72" t="s">
+        <v>91</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>530</v>
+      </c>
+      <c r="X72" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>537</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>530</v>
+      </c>
+      <c r="X73" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>546</v>
+      </c>
+      <c r="J74" t="s">
+        <v>547</v>
+      </c>
+      <c r="K74" t="s">
+        <v>548</v>
+      </c>
+      <c r="L74" t="s">
+        <v>549</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>550</v>
+      </c>
+      <c r="O74" t="s">
+        <v>175</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>554</v>
+      </c>
+      <c r="K75" t="s">
+        <v>555</v>
+      </c>
+      <c r="L75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>557</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>558</v>
+      </c>
+      <c r="X75" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>561</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>562</v>
+      </c>
+      <c r="J76" t="s">
+        <v>563</v>
+      </c>
+      <c r="K76" t="s">
+        <v>564</v>
+      </c>
+      <c r="L76" t="s">
+        <v>565</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>557</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_472.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>aliciarI3508WS</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>TravelsWithKidsInTow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r590662990-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Wow, just returned from 2 nights and gotta say I will not be returning.  We had a room on the back side of the hotel and the first night at 1:30am, 2:30am and 5am a cargo TRAIN passed behind the buildings right to our rear (about a block distance) and blew their horn repetitively each time!!!! It was so loud it woke everyone up.  It was so infuriating. The next evening when we returned I asked the guy at the check in counter if this is a nightly thing, because it is bull and all he said was "Oh I dont normally work nights, so don't know".  Great that is no help.  It came back that evening around 11:00pm or so and then again at midnight but stopped after that.  We were in room 411 so whatever you do, dont pick a room on that side of the hall.  Not sure if the other side is that much better but since it is balcony rooms the sound comes right through the glass really easily.More</t>
   </si>
   <si>
+    <t>J6505EWkimb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r590448429-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Train noise ALL NIGHT and poorly stocked breakfast items in AM.  How do you not have coffee?  NO SLEEP AND NO CAFFEINE! Broken elevator in AM when checking out from 4th floor!  Not an enjoyable stay.  Would not stay here again for sure!More</t>
   </si>
   <si>
+    <t>fergadaughter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r586921141-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>Great place for a family gathering. Rooms were by a balcony and adjoining, perfect for mingling.the perfect spot to stay while attending graduation.my kids loved the design of the hotel because it reminded them of Aztec pyramids.More</t>
   </si>
   <si>
+    <t>neici2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r585278861-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Great customer service. The staff was very friendly and assisted you right away. Great rooms. The rooms and bathrooms were very clean. Very nice pool area with jacuzzi. They serve great breakfast as well.More</t>
   </si>
   <si>
+    <t>G5266QBchristinan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r583794202-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>jfromsocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r579554576-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>I decided to drive up for an early meeting in Pomona the night before to avoid the early morning traffic from San Diego. Best decision ever! although it was only an overnight stay, everything was perfect and the staff was extremely friendly as usual. Everyone I came in contact with smiled and acknowledged me. The room was quite large and very clean. I appreciate the hair dryer not being attached to the wall and the iron not attached to the board. I felt right at home and had a good nights sleep. Woke up for a tasty breakfast with lots of options and coffee. i think I was the most relaxed person at the meeting since everyone else drove in that day except for the locals. Thanks again La Quinta, you have never failed to deliver!More</t>
   </si>
   <si>
+    <t>Donna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r577293213-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>Cannot express how pleased we were with our stay at this hotel. The hotel is so nice! And they welcome Pets! We travel with our small dog and everything was situated to make our stay relaxing. Food was good, room was updated and nice. Great experience.More</t>
   </si>
   <si>
+    <t>Pawstruck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r577128014-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>Newer hotel in good location!  Spacious, comfortable rooms with sink vanity separate from bathroom (a plus).  Friendly staff, good variety for breakfast.  Love that LaQuinta is pet friendly And this hotel had a nice grassy area for walking your pet.  Cozy fireside areas at pool to relax by.More</t>
   </si>
   <si>
+    <t>N9950QTritad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r574094496-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>This was our 2nd time here at this location. 1st experience was spring brake several college kids on our floor. Very noisy and hall ways and person above us was stopping and was not able to sleep. Decided to give it a 2nd chance this time with the kids and stayed 2 nights and was a mistake. We where placed next to elevator and entrance of floor. After making comment at check in, that we did not want to be placed next to washer room or elevator because of being to noisy. Pool was not heated at ALL and water was freezing to have the kids in there. (what a waste) We where not able to sleep once again as it was to noisy. We expected a nice family get away from our home town of San Diego and we where disappointed once again.More</t>
   </si>
   <si>
+    <t>DonandMaro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r572734649-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t>I stayed at the La Quinta Inn for one night while on business.  The hotel was clean, in a good location.  Check in was easy.  My one issues was that to get into the hotel with your bags, you have to either go down a half a flight of stairs or go up a half a flight of stairs....there is no direct access to the hotel rooms and no ramp.  So, when I checked in, drove around to park at the back of the hotel to park, with my bags I had to go down about 5 steps to get into the hotel.  It was odd.My room had a very heavy Lysol pine smell to it - it was clean.  My view overlooked the highway and the mountains but it was quiet.  I had a small balcony that I could access from my room.More</t>
   </si>
   <si>
+    <t>dmm11262016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r572579909-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>We stayed here because of your pet policy. Nice pet area with automatic light for night. Staff was very friendly and helpful. Lots of towels. We liked that sink was outside of the shower/toilet area. WE were traveling from San Francisco to SCottsdale, AZ and location was convenient.More</t>
   </si>
   <si>
+    <t>Edward S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r569760740-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>We stayed a few nights  in the same room last Thanksgiving (2017), and now we spent another 4 nights in the handicap/accessible room next to the swimming pool on the first floor. We really enjoyed our stay, the buffet breakfast is generous, varied, and has plenty of hot items besides waffles. The staff at La Quinta is very polite and cheerful. We have had many conversations in English and Spanish, and everyone enjoys the chat. We also appreciate seeing a security official visiting the buildings and walking the hallways. We think La Quinta has a good company culture and business policy. BTW, I was able to redeem reward points to make one night FREE!Let me make these suggestions (room 134):1. the bathroom, which has the accessibility wall bars by the toilet and tub, but it has no towel racks. There is no place to hang a towel except the shower curtain bar.2. the bathroom should have a hook on the door to hang a bathrobe, for example3. this time there was no chair for the large table in the roomThe wonderful staff...1. brought us an extra blanket within minutes of calling the front desk;2. brought us a perfect chair for the table right away, too.One last dream suggestion: my 99 year old mother has to "hurry" to get to breakfast before it "ends" at 9:00. Could 6:30-9:30 breakfast hours be considered?More</t>
   </si>
   <si>
+    <t>Z9308YHj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r569008407-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>Was pleased with our stay. Arrived too late to try out the pool but it looked nice. Did not like the split campus feel of the building mainly because I needed to do some laundry and had to go outside in order to get to the lobby to purchase laundry soap. I wish that their were dispensers in the laundry rooms for that reason. Front desk staff was helpful and friendly. Breakfast was decent, rooms were clean. I would stay here again, easy access to freeway. More</t>
   </si>
   <si>
+    <t>Don E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r568135534-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -501,6 +546,9 @@
     <t>This La Quinta is in a good location in my opinion. Right off the hwy, close to some really good places to eat (not walking distance) and is reasonably priced. The staff was very helpful in directing us where we could get to a variety of shopping and restaurants that were affordable. The room was well kept and THE WINDOW OPENS for a bit of fresh air if wanted. I will stay here again if in the area. Oh!! AND they have a HOT TUB too!! :)    More</t>
   </si>
   <si>
+    <t>amy h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r565204605-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>In Pomona for a dog show at the Fairplex.  The location is very convenient to Ontario airport and the show site, plus is pet friendly.  However, it is an older property and there were some maintenance and accessibility issues.  The sink stopper was broken and the tub stopper was missing.  The slider door would not lock.  The exterior door down the hall had a sign saying it was broken, which was true since it was unlocked for my entire stay.  The accessibility issues made it difficult to get a trolley and crate in from the car very difficult, as there are numerous steps and curbs, without directing one to wheelchair accessible areas.More</t>
   </si>
   <si>
+    <t>Andy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r564776671-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
     <t>I recently booked a trip to Diamond Bar to visit a friend and to not be an inconvenience to my friend, I decided to grab a room last minute. I called and they had availability. I spoke with a gal named Paige and when I entered the lobby she remembered our phone conversation and asked for all my required items for check in (ID and credit card) as well as my AAA card. Paige is so great and nice, everything that you need to be in the hospitality industry. My room was great size and clean. Simple and easy for a single king with comfy pillows too! What I was really blown away with was their breakfast that they offer in their lobby. I work in the hospitality industry and my hotels lobby has nothing on what they have here. There was everything from omelettes, pancakes, yogurt, sausage, toast, bagels, cream cheese and jam, milk and cereal!!! This is so creat and the best. Thanks to the team for all the smiles! I know where I’ll be staying when I’m back in town!!  More</t>
   </si>
   <si>
+    <t>Gretchen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r564797252-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t>The location was very nice and clean.  Nice room, comfortable beds, decent breakfast, and you can have your pets with you.   It is next to the train tracks but it didn't keep me from getting a good nights sleep.More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r562049597-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -597,6 +654,9 @@
     <t>My room was on the top floor facing the pool. The room was a good size but missing a desk chair and a garbage can due to on going renovations. It was fairly quiet but you could hear the pool gate open and close quite a bit. The room had a sliding door which was nice to let fresh air in, but it was a very small balcony. The breakfast area is very small, but does offer hot food. There was a bus load of tourist so I had to wait in line as there was no standing room in the small area. The food was okay, waffles, cheese omelettes and cereal etc.. The staff was friendly.More</t>
   </si>
   <si>
+    <t>Beth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r559141104-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -621,6 +681,9 @@
     <t>The location of this hotel is excellent, the staff very professional and the bedding is very soft with good sleeping pillows.  The hotel caters to international tourism making it difficult to find a place to sit at breakfast and not having to wait for food to be replenished and the noise level in the hallways is very loud.More</t>
   </si>
   <si>
+    <t>dianasS6479MN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r558948084-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -645,6 +708,9 @@
     <t>We went to Pomona for a baseball series for grandson. Travelling with me was my daughter. The location was close to the ball fields. The front desk recommended and excellent restaurant in area the family very much enjoyed.  We were able to easily get on and off the freeways to the motel and to our field destinations. We enjoyed our stay in Pomona very much.More</t>
   </si>
   <si>
+    <t>wedding0114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r555568092-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -672,6 +738,9 @@
     <t>5 minute drive from the amazing Coco palm restaurant (great wedding venue &amp; brunch)I recently Booked 5 rooms for my wedding party and family. everyone agreed the staff was very polite. Rooms clean and spacious.More</t>
   </si>
   <si>
+    <t>kendra82018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r553538647-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -699,6 +768,9 @@
     <t>Love it love it love it we always come there and stay at the Pomona La Quinta. My godchildren and a daughter in college lives there as well as other family members so it's easy access to her college which is Cal Poly this is her final year however we still plan on returning to see the god kids please send us any type of discounts that may be available or special rates we would not have it any other way or stay in the other place but the LaQuintaMore</t>
   </si>
   <si>
+    <t>X5470KUjimc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r552614127-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -723,6 +795,9 @@
     <t>We booked a room with 2 queen beds. We had an excellent hot breakfast the following morning. I was very impressed with how easyit was to get "odd little" extra perks at no additional charge ! We will definitely stay at La Quinta again !More</t>
   </si>
   <si>
+    <t>Juan O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r549593254-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -750,6 +825,9 @@
     <t>clean hotel, free breakfast, fast check in /out, good customer service, excellent housekeeping staff. Great location easy freeway access, nice quiet residential area. Nice pool and spa. Truly enjoyed our stay here, I would gladly stay here again. Worth the money spent.More</t>
   </si>
   <si>
+    <t>Kelly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r547670678-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -771,6 +849,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>lisacH7073PN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r547270476-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -786,6 +867,9 @@
     <t xml:space="preserve">I recently stayed at the Laquinta in a last minute emergency with my family, in addition I used their Corporate Meeting Rooms for several weeks for a business event.In both instances I found the service and facilities to exceed my expectation.Denise and Kay both went over and above to make any arrangements we needed.Great team of people, great value. </t>
   </si>
   <si>
+    <t>larrybU5676FL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543744270-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -810,6 +894,9 @@
     <t>Great Hotel with excellent prices, breakfast, location and accommodations.  Friendly staff.  Pool and Hot Tub.  Quiet.  Easy access to freeway, shopping, and local attractions.  Secure entrances and hallways.More</t>
   </si>
   <si>
+    <t>lloydn898</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543378285-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -834,6 +921,9 @@
     <t>Really loved this place.  It was clean and very inviting.  Front Office was professional and gracious.  Rooms were clean and neat.  Very quiet in relation to other hotels and inns.  Love ❤️ it.  Would like to go back and stay there some near future. More</t>
   </si>
   <si>
+    <t>Lor7000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r543230618-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -858,6 +948,9 @@
     <t>If the cleaning staff would actually do their job ....the stay would not have been bad. Other than that it was a good location to stay at and the front desk staff was really helpful with our room issues More</t>
   </si>
   <si>
+    <t>D9320NAricharda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r538992910-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>This hotel was very clean and a great price for the value.  Nice location right off the freeway.  I stayed here with my wife and 6 year old son.  They both enjoyed it.  The bed was really comfortable and you can hardly hear any noise from the other rooms.  Would definitely stay here again when traveling near this area.More</t>
   </si>
   <si>
+    <t>stevewY4075QZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r537551748-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -900,6 +996,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Denisa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r537221164-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -915,6 +1014,9 @@
     <t xml:space="preserve">We stayed here 2 nights. The hotel was nice and the room was clean. The only thing I didn’t like there was the balcony(it looks like the housekeeper didn’t clean it for a while). The breakfast was really good. </t>
   </si>
   <si>
+    <t>Kasey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r536877080-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -930,6 +1032,9 @@
     <t>Great little hotel. Staff are friendly. Room is very clean and tidy, and beds are very comfortable. My only complaint is the noise of the elevator at all hours and we were two rooms from the elevator . Other than that, lovely hote and would stay again</t>
   </si>
   <si>
+    <t>charlenem371</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r535222347-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -945,6 +1050,9 @@
     <t>Absolutely love this La Quinta!!  I stay with my dog and there is plenty of green grass for him to walk in. Safe neighborhood and super friendly staff. The hotel is located close to everything. If I didn't travel with a dog I would love to use the pool.  It was spotless and so inviting.</t>
   </si>
   <si>
+    <t>X6390DXroseh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r534051555-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -969,6 +1077,9 @@
     <t>I thought the location was great but the cleanliness of the rooms were terrible. To find roaches in the room was nasty. We were very disappointed in the cleanliness. Also the service at night when we arrived. I didn't catch the gentlemens name but he was really rude and it seem like we were a bother to him. He may have been at the end of his shift but there was no reason to be treated like that. More</t>
   </si>
   <si>
+    <t>1jayberger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r528166496-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -996,6 +1107,9 @@
     <t>These folks love pets and treat them like guests.  Complete manicured area to walk and do your business with a clean up station nearby.  Even saw food and water under a patio that was available if you wanted it.More</t>
   </si>
   <si>
+    <t>donslabaugh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r524269857-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1011,6 +1125,9 @@
     <t>We almost always enjoy La Quinta Inns. This was typical. Good beds. Quiet. Well appointed. Reasonably priced. Very friendly staff. Great location in Pomona, close to Cal Poly. The breakfasts are never great, but edible.</t>
   </si>
   <si>
+    <t>jhiltonw2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r518544339-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1023,6 +1140,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>lupegq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r506181946-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1050,6 +1170,9 @@
     <t>Very awful experience the smell inside the room was horrible my bed smell like a dead animal,I took pictures because this is unhealthy I got a very bad rash on my body, I will never use this brand ever again I rather sleep on the streets that's how bad it was .More</t>
   </si>
   <si>
+    <t>janhA279HQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r505347767-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1068,6 +1191,9 @@
     <t>Staff and Management are very professional and go above and beyond to make sure your stay is the best it can be! Exceptional Breakfast and plenty to go around! there were 4 busloads of tourists there, but the staff kept all breakfast items full!  Great location in Pomona!More</t>
   </si>
   <si>
+    <t>S9480DTnathans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r504368229-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1086,6 +1212,9 @@
     <t>Never ask for early check in and check your beds and sleeper sofa and also check if there is a refrigerator in the room. Very dissapointed with this hotel. My first time to stay at La Quinta and was not impressiveMore</t>
   </si>
   <si>
+    <t>KING5555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r496775415-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1104,6 +1233,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Glen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r492914938-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1128,6 +1260,9 @@
     <t>The hotel itself is a very nice hotel.  The location is just outside the Cal-Poly Pomona Campus in a very quiet neighborhood.  The rooms are very clean.  The hotel amenities include a business center, workout room, pool, and hot tub.   The registration staff, however, needs much more education in how to handle those who like to pay everything in cash upon arrival. Overall a very good experience.More</t>
   </si>
   <si>
+    <t>323miah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r492914934-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1143,6 +1278,9 @@
     <t>Very well kept property and very clean rooms.  Kids enjoyed the Pool and Jacuzzi, also very clean. Breakfast is a bit of a cluster if the hotel is busy.  It was very busy when we were there, other than that being a little unorganized everything was wonderful.More</t>
   </si>
   <si>
+    <t>jtinhb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r483997363-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1167,6 +1305,9 @@
     <t>1. The key didn't work - not a big deal, but they have the outdated key cards2. Food delivery person was not allowed to deliver to the room - they have no room service3. 2 pm late check out was not honored without extreme negotiations4. Staff shut the door in my face while I was telling her that I called for the late check out.5. Several of the staff were confused about the late check out policy6. I was charged for late check out when it's listed under La Quinta Returns membership benefitsMore</t>
   </si>
   <si>
+    <t>N9278WOerinm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r491659497-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1182,6 +1323,9 @@
     <t>My daughter and I stayed here while traveling for a dance competition. The room was clean, the staff friendly, and the breakfast was good. Our room was missing a few things (desk chair, luggage stand), but it was overall clean and updated. The breakfast had good options (yogurt, fruit, waffles, pre-made egg omelets, cereal, bagels, juice, coffee) and there was a good amount of seating. My daughter loved the bushes shaped like elephants out front! Good value.</t>
   </si>
   <si>
+    <t>Tomeeka G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r480243170-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1200,6 +1344,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Mari B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r477309461-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1230,6 +1377,9 @@
     <t>Very nice place and staff Robert was great with my upcoming reservation. Room was very clean and had good quality towels . Shower was great with good temperature and water pressure. Will stay again. When I am in the Cal Poly area.</t>
   </si>
   <si>
+    <t>Vanessa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r474193793-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1254,6 +1404,9 @@
     <t>room was clean, had a nice patio through our sliding door. bathroom was clean, didn't like that there was no trash can by the sink which is outside the bathroom. Laundry room was filthy, trash was overflowing. No laundry soap was available at the front desk.first night we noticed there was a cop car circling, then my friend headed home to discover her car was broken into when it was in the parking lot. which was very dark to begin with. I checked out the following day fearing that it's a regular occurrence, front desk didn't even batted an eyelid when I said i was checking out because my friend's car was broken into. No question or sorry that happened to your friend, nothing!!! and to think that after she had left, I was walking to 7/11 to buy laundry soap and softener because the hotel did not have any! Why would you have multi laundry rooms and not have supplies for it? Do people travel with laundry soaps??? Breakfast was okay, there was imitation eggs, it looked like it was microwaved and it had a slight rubbery texture so we stuck with their make your own waffles.Beds were comfortable but after the car incident, my husband and I could not sleep, I was always looking outside to see our rental car.More</t>
   </si>
   <si>
+    <t>Patrick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r468407170-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1272,6 +1425,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Santiago C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r467681581-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1287,6 +1443,9 @@
     <t>The hotel is 30 minutes from Los Angeles Airport. Very good service, quiet place, first class service, has pool, gym, excellent breakfast buffet, free wifi and parking. The place is close to some Universities, so the neighborhood is quiet.</t>
   </si>
   <si>
+    <t>Harryho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r466884421-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1305,6 +1464,9 @@
     <t>I had an event at the Fairgrounds and needed a place to stay for one night. For the price of the room, I guess what the hotel offers was fair.The room was clean, but the bathroom could use a bit of floor corner scrubbing. The second TP holder was missing the TP roll bar. They made an effort to paint the room, but the trim looked like it had flaws like cracks and chips just painted over them.On the good side, the beds were nice. Sheets were clean. Room furniture seemed updated. There seemed to be a lack of sound insulation as you can hear conversations from down the hall and from other rooms. I'm glad I was tired that night and was able to get sleep.Breakfast was a nice touch as there really are not that many places to eat in close proximity of the hotel.So.....for the price of the room, it's OK. I don't think I would plan an extended stay in it though.More</t>
   </si>
   <si>
+    <t>KateCSydney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r461835062-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1323,6 +1485,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>virginiad504</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r491658460-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1335,6 +1500,9 @@
     <t>As Registrar for an annual event in the area I am delighted with what La Quinta has done with this location. The hotel has been newly renovated. I recommend it with out any hesitation. My room was spacious, comfortable, clean, with every thing I needed and more. Breakfast had lots of variety, hot foods, everything well stocked and good seating options. Cal Poly Pomona is one mile away.</t>
   </si>
   <si>
+    <t>Rhonda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r461217880-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1353,6 +1521,9 @@
     <t>I stayed here while visiting my daughter at CPP.  The room was spacious and newly renovated.  Parking was easy and convenient. The hotel staff were very friendly and the place was very clean.  There was a small work out room that was clean, also. Breakfast was descent, but the only option for fruit was an orange. We stayed on the 4th floor and the only problem was the loud trains and there was a constant, vibrating, ticking noise above our room that made it difficult to go to sleep and woke us up in the morning and several times during the night. The price was a bit more than what I usually pay in this general area. I would probably stay again, if the loud vibrating noise was fixed and hopefully, if the price is more competitive.  It was decently pleasant.More</t>
   </si>
   <si>
+    <t>Bernal S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r451231703-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1371,6 +1542,9 @@
     <t>The rooms are great and recently renovated and the include a mini fridge and a microwave, we stayed in two rooms because the first night we had a guest upstairs that made a lot of noise so we requested a change of room the next morning and the staff complied immediately, our sleep quality improved as soon as this happened.  Daily cleaning is good and the complimentary breakfast is one of the best I have seen.  The problem is the number of tables since they are usually taken by loads of Korean tourists, but this depends on the time you go to the hotel lobby.  We stayed there for a week and I honestly didn't want to leave.  I recommend this to everyone.  It has a pool which we didn't use because of the low temperature and the WiFi was great.  They also offer free parking which is nice.  Make sure to see the brochures where the stairs are as you may find discounts on some of the things you want to do.More</t>
   </si>
   <si>
+    <t>BCRON</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r450864729-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1389,6 +1563,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r448410530-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1407,6 +1584,9 @@
     <t>This property was recently remodeled and oh-my it was done in a first-class style.  Very secure environment, need room key to enter almost every door.  Check-in did not go as smoothly as it should have, the gentlemen night clerk was very pleasant but did not understand “Express Check In” for an Elite Rewards Member (ask for credit card and all the things as though I have never stayed at a LQ (well over 25 stays in 2016).  Business center was available, free breakfast with eggs, sausage, bread and a whole bunch of other items to consume. Needed to print our tickets to Sea World and Bianca was so wonderful to work (day desk clerk) with just an added attraction to an already outstanding 2-night stay.  Our room was clean and big with all the things you would except in a 5-star resort.  Parking was all on the same property.  Elevators were all very conveniently located.  Workout Gym on sight for guest only.  High speed Wi-Fi was working just fine which is a must for me where ever I stay.  Very nice pool area.I would stay again at this property and would recommend LQ Pomona to anyone!!More</t>
   </si>
   <si>
+    <t>Rachel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r435369503-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1434,6 +1614,9 @@
     <t>This hotel is like your standard hotel, so picking it was based on your expectation of past hotel experiences. However housekeeping was inconsistent. One day they would make one bed and not the other. The appropriate count and type of towels were never left. They would even take a towel that is hanging up for use again and trash the soap I was happy to use again. What a waste! I stayed for a few days. The beds are your standard sub-par hotel beds. The pillows are the worst! Sleep was not great. I got to experience the frequent influx of foreign tour busses coming and going. With it the noise of travelers 40 at a time coming in the middle of the night and breakfast in the morning was a joke trying to battle 40 foreign tourists for coffee and a place to sit.  This hotel values quantity of quality, so if you need a hotel for a night or two while passing through and don't care about the service, then stay here.More</t>
   </si>
   <si>
+    <t>DakineSmile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r429768711-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1452,6 +1635,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>alexf49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r420880058-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1470,6 +1656,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>radfordts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r415176665-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1485,6 +1674,9 @@
     <t xml:space="preserve">Me, my mother and little cousin stayed at the La Quinta Inn this past weekend and we absolutely loved it!! very clean and the breakfast was great!! Especially JENNIFER!! she was awesome. Great STAFF!! </t>
   </si>
   <si>
+    <t>Yvette Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r414529118-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1503,6 +1695,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Jen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r413412373-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1530,6 +1725,9 @@
     <t>I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put...I booked a night here after getting duped by fake positive reviews which were most likely left by their staff. I got there at 5 pm and asked for a room on the upper floor, I was told they have only one room available and it’s on the main floor. I can either take it or come back in a few hours. I was exhausted and decided to stay. And thus my nightmare began. I was greeted by scattered cigarettes and an overwhelming smell of urine at the entrance to my floor. When I was trying to use my key card a man snuck up from behind and said he couldn’t find his card so he’d just wait for me to open the door. I felt uncomfortable and unsafe but couldn’t exactly run away with my luggage. I hurried to my room and passed out for a few hours. I woke up around midnight and sat up on the bed, I felt something crawling on my back. It was a flea. I killed it and have posted pictures of the aftermath. It was too late to find another place so I decided to bide my time till sunrise. When I opened the curtains the next morning, I discovered the window had been left open. I couldn’t tell before because of the thick curtains on both sides. There was no lock on the window, though someone was considerate enough to put a screw in lieu of a proper lock. I’ve attached pictures of the said window and my lovely view of the parking lot. I guess it’s better I discovered the open window in the morning and not the evening before otherwise I would’ve been too afraid to fall asleep amidst crawling fleas and unlocked windows. This is a terrible place and I do not recommend it, stay here at your own risk.More</t>
   </si>
   <si>
+    <t>mncuevas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r378642056-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1555,6 +1753,9 @@
   </si>
   <si>
     <t>So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because...So my stay was over the memorial weekend.  I booked my room a week prior to my arrival; I even booked my stay for Friday the 27th, knowing I would arrive in the early hours.  We arrived at 3:30am, and guess what I forgot my credit card (the one I used to book the hotel with) at home.  So I presented my debit card, did not want to worry, I was tired the kids were fussy etc.  I figured I can talk to the managers tomorrow and it will be ok.  The next morning Saturday 28th, I called my credit card company explained to them what had happen; they were willing to assist me with talking to manager etc.  When I got to the front desk, I explain to the desk clerk my situation and yes he mentions he needed the physical card.  I told him I had the credit card people on the phone and they are will to authorize the transaction over the phone.  He still gave me the run around about policy etc….so I ask for the manager.  So then out came ROBERT, I explained my dilemma to him.  He looked at my account saw that I did my reservations with the card.  He too gave me the policy speech.  I explained I had the credit card people on the line and they can give him an authorization.  He explain, he could not use my card, because I just might go home and call my credit card company and claim that I did not use the card for that service (fraud).  I told him, how can I call my credit card company and claim that, if I have the credit card company on the line right now and I know they are recording my call.  Even the credit card company was shock to hear him say that. (Not sure what type of people he deals with but I am not one of them).  Robert then offers to call upper management.  So he goes into the room on the side.  I notice as he goes in about 10-15 housekeepers all walked in behind him.  5 to 10 minutes go by and then they all come out laughing, talking etc.  By this time I ask the desk clerk my status.  He states let me checked, so he goes to the same room and the door closes.  More housekeepers are coming out.  Out comes Robert.  He states I am unable to assist, I spoke with upper management and they said no.  I was vivid.  He claims to have called his boss at the same time he had a meeting with the housekeeper.  I could not believe it.  He lied to my face.  I was so upset.  I knew the credit card problem was not going to be resolved, I understand policies and what not….but ROBERT lied.  He did not even call his boss/upper management.  He could not have called, as the doors open and closed in those 5 to 10 minutes I saw him standing in the middle of the housekeepers talking and laughing.  You expect me to believe that you called.  You are a liar.  I walked out the front lobby.  There was nothing I could have done.  What really upset me was his lie.  Not even the fact that the housekeeper did not vacuum my room on Saturday or that my husband killed a roach in the room.  Or that on Sunday the housekeeper did not respect the fact that I had a do not disturb sign on the outside of the door and decides to come in as we are changing.  No that did not bother me…it was the fact that ROBERT did not do what he said was going to do and assist me.More</t>
+  </si>
+  <si>
+    <t>jsorrell92</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r376296861-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
@@ -1583,6 +1784,9 @@
 The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a...My wife and I travel quite a bit which means we stay in various hotels and have had an assortment of experiences. The La Quinta Inn &amp; Suites has to be most likely the best experience we have ever had in a hotel. The hotel was actually underpriced in comparison to like hotels in the area. The lobby and rooms are all upgraded with a modern feel which we enjoyed. The hotel staff were some of the nicest and most helpful hotel staff we have ever encountered! Even though this is a very high tourist attracting area and hotel, the staff did not become indifferent or annoyed but instead we're very pleasant and personable with each guest. We misplaced our key card and they quickly and easily gave us new ones, we asked for towels several times and they accommodated, we had a miss of a couple of items one day from housekeeping and they immediately corrected it. Best of all parking was free, wifi was free, and breakfast is also free. This is literally one of the only hotels we found in the area which offered all three at no expense. The hotel was super cleanly and you could see staff nearly every minute of the day scurrying to keep the hotel cleanly, with a smile. The area of Pamona is a little ways away from major attractions however this was a good thing as we were within a few miles from food and groceries yet we were enough of the city to seem safe and quiet. The only fault we could find was housekeeping did let themselves in twice without warning, which was an embarrassing encounter. However I believe it was just a lack of training. Over all my wife and I recommend this hotel in the highest of ways! Thank you La Quinta staff for making our first visit to Cali so very pleasant! More</t>
   </si>
   <si>
+    <t>Exploring4Fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r371843500-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1592,6 +1796,9 @@
     <t>05/10/2016</t>
   </si>
   <si>
+    <t>StevensFam4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r356746872-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1637,6 +1844,9 @@
     <t>The stay at the hotel was the best , good atmosphere , good breakfast , cordial , the price for a room is reasonable. Is near to California State University, the neighborhood is quiet and safe, Free Parking, Free Internet in all locatios, Pool, whirlpool. When return again I'll definitely this hotel.More</t>
   </si>
   <si>
+    <t>Nick A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r349282500-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1655,6 +1865,9 @@
     <t>We booked this place online because they advertised a "garden view" room. When we checked in and got to our room, our view is of shrubs, the parking lot in the back, and thr freeway. Where is the garden I paid extra for to see? It doesn't exist! To add to the problem, our window to this view DOES NOT LOCK! So quite literally, some drunk or rapist or what have you could easily just open it and come in while we are sleeping! I will never book at this location again, and even if it means staying at a low end, run down motel 6, I will stay there instead of here again. Never have I stayed at a La Quinta and dealt with this.More</t>
   </si>
   <si>
+    <t>Dyan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r338719033-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -1674,6 +1887,9 @@
   </si>
   <si>
     <t>The rooms and lobby of this hotel have been completely renovated and the look is modern and stylish.  We had no problems with check in or service.  Our room was clean, the temperature was fine, and the beds were comfortable.  My only wish was that I'd prefer the sink/vanity to be actually inside the bathroom, not open to the bedroom, like some hotels (including this one) are.  So if privacy at the sink is crucial to you, please be aware.  Also, I agree with another review that you should choose a room other than the first floor.  The train noise was noticeable, but it is probably quieter with a front (pool) view.  Since we have regular events in that area, it's highly likely that we'll return -- the convenience, both from the freeway and to the event, was perfect.More</t>
+  </si>
+  <si>
+    <t>Dayana C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d84669-r337851794-La_Quinta_Inn_Suites_Pomona-Pomona_California.html</t>
@@ -2223,43 +2439,47 @@
       <c r="A2" t="n">
         <v>11197</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2283,50 +2503,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11197</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2344,56 +2568,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11197</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2415,56 +2643,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11197</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2486,56 +2718,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11197</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2557,56 +2793,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11197</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2628,50 +2868,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11197</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2693,56 +2937,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11197</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2764,56 +3012,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11197</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2835,56 +3087,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11197</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2906,56 +3162,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11197</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2971,56 +3231,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11197</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3042,56 +3306,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11197</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3109,56 +3377,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11197</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3180,56 +3452,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11197</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3251,56 +3527,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11197</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3322,56 +3602,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11197</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3383,56 +3667,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11197</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3454,56 +3742,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11197</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3525,56 +3817,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11197</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3596,56 +3892,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11197</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3667,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11197</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3738,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11197</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3809,56 +4117,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11197</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3880,56 +4192,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11197</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3945,54 +4261,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11197</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4014,56 +4334,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11197</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4087,50 +4411,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11197</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4150,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11197</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
+        <v>294</v>
+      </c>
+      <c r="J30" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" t="s">
+        <v>297</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>265</v>
       </c>
-      <c r="J30" t="s">
-        <v>266</v>
-      </c>
-      <c r="K30" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" t="s">
-        <v>268</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>240</v>
-      </c>
       <c r="O30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4221,56 +4553,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="X30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11197</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4292,56 +4628,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11197</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4363,56 +4703,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11197</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4436,50 +4780,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11197</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4493,50 +4841,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>11197</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4550,50 +4902,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>11197</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4617,50 +4973,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>11197</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4682,56 +5042,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="X37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>11197</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4753,56 +5117,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>11197</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4826,35 +5194,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>11197</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4862,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4886,51 +5258,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>11197</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>374</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="K41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="L41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4942,56 +5315,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="X41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="Y41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>11197</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>384</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5013,56 +5390,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="X42" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>11197</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5084,56 +5465,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="X43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>11197</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5147,50 +5532,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>11197</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5212,56 +5601,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>11197</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>414</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5283,56 +5676,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="X46" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>11197</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5354,56 +5751,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>11197</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5427,50 +5828,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>11197</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5484,50 +5889,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>11197</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>442</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5547,50 +5956,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>11197</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>369</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="J51" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K51" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5614,50 +6027,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>11197</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5673,56 +6090,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="X52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>11197</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>462</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5742,50 +6163,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>11197</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>469</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5805,50 +6230,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>11197</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>475</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5868,50 +6297,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>11197</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5925,50 +6358,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>11197</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>489</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J57" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="K57" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="L57" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5992,50 +6429,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>11197</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>494</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6053,50 +6494,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>11197</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>501</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="K59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="O59" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6114,50 +6559,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>11197</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>508</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="J60" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="K60" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="L60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O60" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6171,50 +6620,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>11197</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>515</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J61" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6234,50 +6687,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>11197</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>522</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="L62" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6295,56 +6752,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="X62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="Y62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>11197</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>532</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="J63" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="K63" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="L63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6364,50 +6825,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>11197</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>539</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="J64" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="K64" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="L64" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6431,41 +6896,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>11197</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>546</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="J65" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="K65" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="L65" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6484,50 +6953,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>11197</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>552</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="J66" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="K66" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="L66" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="O66" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6547,50 +7020,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>11197</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>559</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="J67" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="K67" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="L67" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="O67" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -6608,56 +7085,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="X67" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="Y67" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>11197</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>569</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="J68" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="K68" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="L68" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="O68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6675,56 +7156,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="X68" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="Y68" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>11197</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>579</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="J69" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="K69" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="L69" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="O69" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6736,54 +7221,58 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="X69" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="Y69" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>11197</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>588</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="J70" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6805,56 +7294,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="X70" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="Y70" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>11197</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>592</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="J71" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="K71" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="L71" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6866,56 +7359,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="X71" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="Y71" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>11197</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>469</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="J72" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="K72" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="O72" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6931,56 +7428,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="X72" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="Y72" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>11197</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>608</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="J73" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="K73" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="L73" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6992,56 +7493,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="X73" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="Y73" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>11197</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>615</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="J74" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="K74" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="L74" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="O74" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7059,50 +7564,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>11197</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>623</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
       <c r="J75" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="K75" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="L75" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7118,56 +7627,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="X75" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="Y75" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>11197</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="J76" t="s">
-        <v>563</v>
+        <v>635</v>
       </c>
       <c r="K76" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="L76" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7187,7 +7700,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
